--- a/prot/356379915/Переход трубопровода через р. Енисей/OCR/1059.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/OCR/1059.xlsx
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="23" t="n">
-        <v>1.01367257416268</v>
+        <v>1.01276057416268</v>
       </c>
       <c r="E28" s="12" t="n"/>
       <c r="F28" s="31" t="n"/>
@@ -3356,43 +3356,43 @@
         <v>0.0125</v>
       </c>
       <c r="O28" s="81" t="n">
-        <v>1.158743158163885</v>
+        <v>1.15661705977675</v>
       </c>
       <c r="P28" s="81" t="n">
-        <v>0.04013769411584237</v>
+        <v>0.04039344958801168</v>
       </c>
       <c r="Q28" s="81" t="n">
-        <v>0.9785829393194789</v>
+        <v>0.9766159219447771</v>
       </c>
       <c r="R28" s="81" t="n">
-        <v>0.04013769411584237</v>
+        <v>0.04039344958801168</v>
       </c>
       <c r="S28" s="81" t="n">
-        <v>0.9785829393194789</v>
+        <v>0.9766159219447771</v>
       </c>
       <c r="T28" s="81" t="n">
-        <v>0.04013769411584237</v>
+        <v>0.04039344958801168</v>
       </c>
       <c r="U28" s="81" t="n">
-        <v>0.9785829393194789</v>
+        <v>0.9766159219447771</v>
       </c>
       <c r="V28" s="81" t="n">
-        <v>0.1328869082489699</v>
+        <v>0.1324895751703525</v>
       </c>
       <c r="W28" s="81" t="n">
-        <v>0.9396304890909997</v>
+        <v>0.937842073164857</v>
       </c>
       <c r="X28" s="81" t="n">
-        <v>0.1328869082489699</v>
+        <v>0.1324895751703525</v>
       </c>
       <c r="Y28" s="81" t="n">
-        <v>0.9396304890909997</v>
+        <v>0.937842073164857</v>
       </c>
       <c r="Z28" s="81" t="n">
         <v>0.0125</v>
       </c>
       <c r="AA28" s="81" t="n">
-        <v>1.054496895104895</v>
+        <v>1.053191048951049</v>
       </c>
       <c r="AB28" s="81" t="n"/>
       <c r="AC28" s="81" t="n"/>
@@ -3410,10 +3410,10 @@
         <v>0.025</v>
       </c>
       <c r="C29" s="35" t="n">
-        <v>0.04110829801777172</v>
+        <v>0.04154258373205743</v>
       </c>
       <c r="D29" s="23" t="n">
-        <v>1.009391358115569</v>
+        <v>1.007939050423261</v>
       </c>
       <c r="E29" s="12" t="n"/>
       <c r="F29" s="31" t="n"/>
@@ -3427,34 +3427,34 @@
         <v>6.4</v>
       </c>
       <c r="O29" s="81" t="n">
-        <v>0.5804736691675823</v>
+        <v>0.5785063964175813</v>
       </c>
       <c r="P29" s="81" t="n">
         <v>0.05</v>
       </c>
       <c r="Q29" s="81" t="n">
-        <v>0.9785829393194789</v>
+        <v>0.9766159219447771</v>
       </c>
       <c r="R29" s="81" t="n">
         <v>0.05</v>
       </c>
       <c r="S29" s="81" t="n">
-        <v>0.9714343802228605</v>
+        <v>0.9696514869201249</v>
       </c>
       <c r="T29" s="81" t="n">
         <v>0.05</v>
       </c>
       <c r="U29" s="81" t="n">
-        <v>0.9642858211262422</v>
+        <v>0.9626870518954729</v>
       </c>
       <c r="V29" s="81" t="n">
-        <v>0.1328869082489699</v>
+        <v>0.1324895751703525</v>
       </c>
       <c r="W29" s="81" t="n">
-        <v>0.9396304890909997</v>
+        <v>0.937842073164857</v>
       </c>
       <c r="X29" s="81" t="n">
-        <v>0.1328869082489699</v>
+        <v>0.1324895751703525</v>
       </c>
       <c r="Y29" s="81" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>4.00625</v>
       </c>
       <c r="AA29" s="81" t="n">
-        <v>0.6790302615535513</v>
+        <v>0.6765052431104164</v>
       </c>
       <c r="AB29" s="81" t="n"/>
       <c r="AC29" s="81" t="n"/>
@@ -3481,10 +3481,10 @@
         <v>0.05</v>
       </c>
       <c r="C30" s="35" t="n">
-        <v>0.04314697232591976</v>
+        <v>0.04383854741749484</v>
       </c>
       <c r="D30" s="23" t="n">
-        <v>0.9642858211262422</v>
+        <v>0.9626870518954729</v>
       </c>
       <c r="E30" s="12" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -3498,34 +3498,34 @@
         <v>8</v>
       </c>
       <c r="O30" s="81" t="n">
-        <v>0.5597890919537969</v>
+        <v>0.5578275003632162</v>
       </c>
       <c r="P30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="Q30" s="81" t="n">
-        <v>0.9785829393194789</v>
+        <v>0.9766159219447771</v>
       </c>
       <c r="R30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="S30" s="81" t="n">
-        <v>0.8063046309642954</v>
+        <v>0.8039855472349189</v>
       </c>
       <c r="T30" s="81" t="n">
         <v>8</v>
       </c>
       <c r="U30" s="81" t="n">
-        <v>0.6340263226091118</v>
+        <v>0.6313551725250607</v>
       </c>
       <c r="V30" s="81" t="n">
-        <v>0.1328869082489699</v>
+        <v>0.1324895751703525</v>
       </c>
       <c r="W30" s="81" t="n">
-        <v>0.9396304890909997</v>
+        <v>0.937842073164857</v>
       </c>
       <c r="X30" s="81" t="n">
-        <v>0.1328869082489699</v>
+        <v>0.1324895751703525</v>
       </c>
       <c r="Y30" s="81" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>8</v>
       </c>
       <c r="AA30" s="81" t="n">
-        <v>0.6340263226091112</v>
+        <v>0.6313551725250606</v>
       </c>
       <c r="AB30" s="81" t="n"/>
       <c r="AC30" s="81" t="n"/>
@@ -3552,10 +3552,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="35" t="n">
-        <v>0.06462579946369426</v>
+        <v>0.06538711814501293</v>
       </c>
       <c r="D31" s="23" t="n">
-        <v>0.9221883919958158</v>
+        <v>0.9204141409836701</v>
       </c>
       <c r="E31" s="12" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -3595,10 +3595,10 @@
         <v>0.2</v>
       </c>
       <c r="C32" s="35" t="n">
-        <v>0.0846721942877068</v>
+        <v>0.08551707572206189</v>
       </c>
       <c r="D32" s="23" t="n">
-        <v>0.8724353283644887</v>
+        <v>0.8705594520891851</v>
       </c>
       <c r="E32" s="12" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -3638,10 +3638,10 @@
         <v>0.4</v>
       </c>
       <c r="C33" s="35" t="n">
-        <v>0.1083641293502435</v>
+        <v>0.1092574037670548</v>
       </c>
       <c r="D33" s="23" t="n">
-        <v>0.8181851434841059</v>
+        <v>0.8162510272088024</v>
       </c>
       <c r="E33" s="12" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -3681,10 +3681,10 @@
         <v>0.8</v>
       </c>
       <c r="C34" s="35" t="n">
-        <v>0.1341975507218544</v>
+        <v>0.1351185584719989</v>
       </c>
       <c r="D34" s="23" t="n">
-        <v>0.7614078856672593</v>
+        <v>0.7594399089268394</v>
       </c>
       <c r="G34" s="31" t="n"/>
       <c r="H34" s="31" t="n"/>
@@ -3722,10 +3722,10 @@
         <v>1.6</v>
       </c>
       <c r="C35" s="35" t="n">
-        <v>0.161234340158448</v>
+        <v>0.1621714719396003</v>
       </c>
       <c r="D35" s="23" t="n">
-        <v>0.7025061445074419</v>
+        <v>0.700524802917613</v>
       </c>
       <c r="E35" s="12" t="n"/>
       <c r="F35" s="73" t="inlineStr">
@@ -3738,7 +3738,7 @@
       <c r="I35" s="56" t="n"/>
       <c r="J35" s="57" t="n"/>
       <c r="K35" s="46" t="n">
-        <v>0.1328869082489699</v>
+        <v>0.1324895751703525</v>
       </c>
       <c r="L35" s="13" t="n"/>
       <c r="N35" s="81" t="n"/>
@@ -3771,10 +3771,10 @@
         <v>3.2</v>
       </c>
       <c r="C36" s="35" t="n">
-        <v>0.1892827883297896</v>
+        <v>0.1902262843249462</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>0.642008267582868</v>
+        <v>0.6400289596099722</v>
       </c>
       <c r="E36" s="12" t="n"/>
       <c r="F36" s="67" t="inlineStr">
@@ -3820,10 +3820,10 @@
         <v>6.4</v>
       </c>
       <c r="C37" s="35" t="n">
-        <v>0.2180913011510152</v>
+        <v>0.2190338287571562</v>
       </c>
       <c r="D37" s="23" t="n">
-        <v>0.5804736691675823</v>
+        <v>0.5785063964175813</v>
       </c>
       <c r="E37" s="12" t="n"/>
       <c r="F37" s="67" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="I37" s="49" t="n"/>
       <c r="J37" s="50" t="n"/>
       <c r="K37" s="45" t="n">
-        <v>2.657738164979398</v>
+        <v>2.649791503407051</v>
       </c>
       <c r="L37" s="13" t="n"/>
       <c r="N37" s="81" t="n"/>
@@ -3869,10 +3869,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="36" t="n">
-        <v>0.2473934908725799</v>
+        <v>0.2483302874201994</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>0.5597890919537969</v>
+        <v>0.5578275003632162</v>
       </c>
       <c r="E38" s="12" t="n"/>
       <c r="F38" s="68" t="inlineStr">
@@ -3885,7 +3885,7 @@
       <c r="I38" s="69" t="n"/>
       <c r="J38" s="70" t="n"/>
       <c r="K38" s="47" t="n">
-        <v>0.0828869082489699</v>
+        <v>0.08248957517035253</v>
       </c>
       <c r="L38" s="13" t="n"/>
       <c r="N38" s="81" t="n"/>
@@ -4191,7 +4191,7 @@
         <v>0.25</v>
       </c>
       <c r="O45" s="91" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P45" s="88" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0.25</v>
       </c>
       <c r="S45" s="88" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T45" s="88" t="n"/>
       <c r="U45" s="81" t="n"/>
@@ -4229,10 +4229,10 @@
         <v>0.0125</v>
       </c>
       <c r="C46" s="35" t="n">
-        <v>0.2569268626110732</v>
+        <v>0.259641148325359</v>
       </c>
       <c r="D46" s="37" t="n">
-        <v>0.2569268626110732</v>
+        <v>0.259641148325359</v>
       </c>
       <c r="E46" s="31" t="n"/>
       <c r="F46" s="31" t="n"/>
@@ -4252,13 +4252,13 @@
         <v>0.25</v>
       </c>
       <c r="Q46" s="87" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R46" s="88" t="n">
         <v>0.25</v>
       </c>
       <c r="S46" s="88" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T46" s="88" t="n"/>
       <c r="U46" s="81" t="n"/>
@@ -4284,10 +4284,10 @@
         <v>0.025</v>
       </c>
       <c r="C47" s="35" t="n">
-        <v>0.03822514327777587</v>
+        <v>0.04304931910195153</v>
       </c>
       <c r="D47" s="37" t="n">
-        <v>0.2951520058888491</v>
+        <v>0.3026904674273105</v>
       </c>
       <c r="E47" s="31" t="n"/>
       <c r="F47" s="31" t="n"/>
@@ -4327,10 +4327,10 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="35" t="n">
-        <v>0.805456017666544</v>
+        <v>0.8080714022819284</v>
       </c>
       <c r="D48" s="37" t="n">
-        <v>1.100608023555393</v>
+        <v>1.110761869709239</v>
       </c>
       <c r="E48" s="31" t="n"/>
       <c r="F48" s="31" t="n"/>
@@ -4370,10 +4370,10 @@
         <v>0.1</v>
       </c>
       <c r="C49" s="35" t="n">
-        <v>1.50347961180094</v>
+        <v>1.509746818278673</v>
       </c>
       <c r="D49" s="37" t="n">
-        <v>2.604087635356333</v>
+        <v>2.620508687987912</v>
       </c>
       <c r="E49" s="31" t="n"/>
       <c r="F49" s="31" t="n"/>
@@ -4413,10 +4413,10 @@
         <v>0.2</v>
       </c>
       <c r="C50" s="35" t="n">
-        <v>3.553790259380512</v>
+        <v>3.561049206748932</v>
       </c>
       <c r="D50" s="37" t="n">
-        <v>6.157877894736845</v>
+        <v>6.181557894736844</v>
       </c>
       <c r="E50" s="31" t="n"/>
       <c r="F50" s="31" t="n"/>
@@ -4456,10 +4456,10 @@
         <v>0.4</v>
       </c>
       <c r="C51" s="35" t="n">
-        <v>7.750026411483252</v>
+        <v>7.758346411483252</v>
       </c>
       <c r="D51" s="37" t="n">
-        <v>13.9079043062201</v>
+        <v>13.9399043062201</v>
       </c>
       <c r="E51" s="31" t="n"/>
       <c r="F51" s="31" t="n"/>
@@ -4499,10 +4499,10 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="35" t="n">
-        <v>16.22207366195617</v>
+        <v>16.23174808056082</v>
       </c>
       <c r="D52" s="37" t="n">
-        <v>30.12997796817627</v>
+        <v>30.17165238678091</v>
       </c>
       <c r="E52" s="31" t="n"/>
       <c r="F52" s="73" t="inlineStr">
@@ -4548,10 +4548,10 @@
         <v>1.6</v>
       </c>
       <c r="C53" s="35" t="n">
-        <v>33.65813780560993</v>
+        <v>33.6657748624151</v>
       </c>
       <c r="D53" s="37" t="n">
-        <v>63.7881157737862</v>
+        <v>63.83742724919601</v>
       </c>
       <c r="E53" s="31" t="n"/>
       <c r="F53" s="67" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="C54" s="35" t="n">
-        <v>69.14043077094155</v>
+        <v>69.13810663730389</v>
       </c>
       <c r="D54" s="37" t="n">
-        <v>132.9285465447277</v>
+        <v>132.9755338864999</v>
       </c>
       <c r="E54" s="31" t="n"/>
       <c r="F54" s="67" t="inlineStr">
@@ -4646,10 +4646,10 @@
         <v>6.4</v>
       </c>
       <c r="C55" s="36" t="n">
-        <v>140.6505106635103</v>
+        <v>140.6230015826077</v>
       </c>
       <c r="D55" s="38" t="n">
-        <v>273.579057208238</v>
+        <v>273.5985354691076</v>
       </c>
       <c r="E55" s="31" t="n"/>
       <c r="F55" s="68" t="inlineStr">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="C56" s="31" t="n">
-        <v>70.91855044726441</v>
+        <v>70.89907218639485</v>
       </c>
       <c r="D56" s="31" t="n">
         <v>344.4976076555024</v>
